--- a/Files/project/project-format.xlsx
+++ b/Files/project/project-format.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Commission 
 %</t>
@@ -99,6 +99,9 @@
     <t>A</t>
   </si>
   <si>
+    <t>2025-14-06</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -151,14 +151,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -449,14 +446,14 @@
       <c r="C2" s="1">
         <v>30.0</v>
       </c>
-      <c r="D2" s="2">
-        <v>45642.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45642.0</v>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1">
         <v>20.0</v>
@@ -470,26 +467,26 @@
       <c r="J2" s="1">
         <v>20.0</v>
       </c>
-      <c r="K2" s="2">
-        <v>45642.0</v>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="1">
         <v>200.0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Files/project/project-format.xlsx
+++ b/Files/project/project-format.xlsx
@@ -11,10 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
-  <si>
-    <t>Commission 
-%</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+  <si>
+    <t>Commission</t>
   </si>
   <si>
     <t>Project 
@@ -50,10 +49,6 @@
   <si>
     <t xml:space="preserve">Post 
 Handover </t>
-  </si>
-  <si>
-    <t>Listing 
-Date</t>
   </si>
   <si>
     <t>Property 
@@ -432,28 +427,25 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>20.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>30.0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="1">
         <v>20.0</v>
@@ -461,32 +453,29 @@
       <c r="H2" s="1">
         <v>50.0</v>
       </c>
-      <c r="I2" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>20.0</v>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>200.0</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Files/project/project-format.xlsx
+++ b/Files/project/project-format.xlsx
@@ -11,13 +11,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Commission</t>
   </si>
   <si>
     <t>Project 
 Quality</t>
+  </si>
+  <si>
+    <t>Percent Of Construction</t>
   </si>
   <si>
     <t>Construction
@@ -427,55 +430,61 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>20.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="D2" s="1">
         <v>30.0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1">
         <v>20.0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>50.0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="1">
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1">
         <v>200.0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
